--- a/template/Template Biaya Tiket Pesawat Dalam Negeri PP dari Jakarta (Transit).xlsx
+++ b/template/Template Biaya Tiket Pesawat Dalam Negeri PP dari Jakarta (Transit).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belajar Coding _Programmer\aplikasi-perjadin\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5BAEE4-FBAF-4DB2-9F0B-2758CE8AEF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7C823-6666-43E3-8325-73D01B23887B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DEF48955-3BAF-4228-8703-FD2D8BD68B24}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>NO</t>
   </si>
@@ -49,6 +49,51 @@
   </si>
   <si>
     <t>KOTA TUJUAN</t>
+  </si>
+  <si>
+    <t>AMBON</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>BALIKPAPAN</t>
+  </si>
+  <si>
+    <t>BANJARMASIN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>KENDARI</t>
+  </si>
+  <si>
+    <t>KUPANG</t>
+  </si>
+  <si>
+    <t>MALANG</t>
+  </si>
+  <si>
+    <t>MAMUJU</t>
+  </si>
+  <si>
+    <t>MANOKWARI</t>
+  </si>
+  <si>
+    <t>PALANGKARAYA</t>
+  </si>
+  <si>
+    <t>PALU</t>
+  </si>
+  <si>
+    <t>TERNATE</t>
+  </si>
+  <si>
+    <t>TANJUNG SELOR</t>
   </si>
 </sst>
 </file>
@@ -58,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +114,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,20 +153,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -425,28 +496,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B390032-B230-4A08-864F-BDA9F30DEB48}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="6" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="5" customWidth="1"/>
+    <col min="4" max="7" width="8.7265625" style="5"/>
+    <col min="8" max="8" width="25.453125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -458,57 +531,345 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="10">
+        <v>13285000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>7081000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>7081000</v>
+      </c>
+      <c r="G3" s="10">
+        <v>7081000</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7412000</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3797000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>3797000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>3797000</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5252000</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2995000</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2995000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2995000</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4364000</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2621000</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2621000</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2621000</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7231000</v>
+      </c>
+      <c r="E7" s="10">
+        <v>4824000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>4824000</v>
+      </c>
+      <c r="G7" s="10">
+        <v>4824000</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7658000</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4182000</v>
+      </c>
+      <c r="F8" s="10">
+        <v>4182000</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4182000</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10">
+        <v>9413000</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5081000</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5081000</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5081000</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4599000</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2695000</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2695000</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2695000</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10">
+        <v>7295000</v>
+      </c>
+      <c r="E11" s="10">
+        <v>4867000</v>
+      </c>
+      <c r="F11" s="10">
+        <v>4867000</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4867000</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10">
+        <v>16226000</v>
+      </c>
+      <c r="E12" s="10">
+        <v>10824000</v>
+      </c>
+      <c r="F12" s="10">
+        <v>10824000</v>
+      </c>
+      <c r="G12" s="10">
+        <v>10824000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4984000</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2984000</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2984000</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2984000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="10">
+        <v>9348000</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5113000</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5113000</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5113000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="10">
+        <v>10001000</v>
+      </c>
+      <c r="E15" s="10">
+        <v>6664000</v>
+      </c>
+      <c r="F15" s="10">
+        <v>6664000</v>
+      </c>
+      <c r="G15" s="10">
+        <v>6664000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="10">
+        <v>7424000</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4057000</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4057000</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4057000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
